--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Avp-Avpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Avp-Avpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Avp</t>
   </si>
   <si>
     <t>Avpr1a</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +540,40 @@
         <v>0.520187</v>
       </c>
       <c r="I2">
-        <v>0.635118718400467</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5371252445880853</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.967</v>
+        <v>2.5383755</v>
       </c>
       <c r="N2">
-        <v>20.901</v>
+        <v>5.076751</v>
       </c>
       <c r="O2">
-        <v>0.5748265097082177</v>
+        <v>0.1536689326353429</v>
       </c>
       <c r="P2">
-        <v>0.6465066063008922</v>
+        <v>0.126906281076628</v>
       </c>
       <c r="Q2">
-        <v>1.8120714145</v>
+        <v>0.66021496810925</v>
       </c>
       <c r="R2">
-        <v>10.872428487</v>
+        <v>2.640859872437</v>
       </c>
       <c r="S2">
-        <v>0.3650830761484968</v>
+        <v>0.1536689326353429</v>
       </c>
       <c r="T2">
-        <v>0.3472550190371797</v>
+        <v>0.126906281076628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,40 +602,40 @@
         <v>0.520187</v>
       </c>
       <c r="I3">
-        <v>0.635118718400467</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5371252445880853</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0314</v>
+        <v>6.967000000000001</v>
       </c>
       <c r="N3">
-        <v>8.062799999999999</v>
+        <v>20.901</v>
       </c>
       <c r="O3">
-        <v>0.3326188590839254</v>
+        <v>0.4217703226612587</v>
       </c>
       <c r="P3">
-        <v>0.2493973238257898</v>
+        <v>0.5224735624777741</v>
       </c>
       <c r="Q3">
-        <v>1.0485409359</v>
+        <v>1.8120714145</v>
       </c>
       <c r="R3">
-        <v>4.194163743599999</v>
+        <v>10.872428487</v>
       </c>
       <c r="S3">
-        <v>0.2112524634972082</v>
+        <v>0.4217703226612587</v>
       </c>
       <c r="T3">
-        <v>0.1339575985595413</v>
+        <v>0.5224735624777741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,226 +664,40 @@
         <v>0.520187</v>
       </c>
       <c r="I4">
-        <v>0.635118718400467</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5371252445880853</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.121778666666667</v>
+        <v>7.0130935</v>
       </c>
       <c r="N4">
-        <v>3.365336</v>
+        <v>14.026187</v>
       </c>
       <c r="O4">
-        <v>0.09255463120785677</v>
+        <v>0.4245607447033983</v>
       </c>
       <c r="P4">
-        <v>0.104096069873318</v>
+        <v>0.3506201564455979</v>
       </c>
       <c r="Q4">
-        <v>0.2917673396386666</v>
+        <v>1.82406003424225</v>
       </c>
       <c r="R4">
-        <v>1.750604037832</v>
+        <v>7.296240136969</v>
       </c>
       <c r="S4">
-        <v>0.05878317875476186</v>
+        <v>0.4245607447033983</v>
       </c>
       <c r="T4">
-        <v>0.05591262699136435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.149426</v>
-      </c>
-      <c r="H5">
-        <v>0.448278</v>
-      </c>
-      <c r="I5">
-        <v>0.3648812815995331</v>
-      </c>
-      <c r="J5">
-        <v>0.4628747554119148</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.967</v>
-      </c>
-      <c r="N5">
-        <v>20.901</v>
-      </c>
-      <c r="O5">
-        <v>0.5748265097082177</v>
-      </c>
-      <c r="P5">
-        <v>0.6465066063008922</v>
-      </c>
-      <c r="Q5">
-        <v>1.041050942</v>
-      </c>
-      <c r="R5">
-        <v>9.369458477999999</v>
-      </c>
-      <c r="S5">
-        <v>0.2097434335597209</v>
-      </c>
-      <c r="T5">
-        <v>0.2992515872637125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.149426</v>
-      </c>
-      <c r="H6">
-        <v>0.448278</v>
-      </c>
-      <c r="I6">
-        <v>0.3648812815995331</v>
-      </c>
-      <c r="J6">
-        <v>0.4628747554119148</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>4.0314</v>
-      </c>
-      <c r="N6">
-        <v>8.062799999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.3326188590839254</v>
-      </c>
-      <c r="P6">
-        <v>0.2493973238257898</v>
-      </c>
-      <c r="Q6">
-        <v>0.6023959763999999</v>
-      </c>
-      <c r="R6">
-        <v>3.614375858399999</v>
-      </c>
-      <c r="S6">
-        <v>0.1213663955867172</v>
-      </c>
-      <c r="T6">
-        <v>0.1154397252662486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.149426</v>
-      </c>
-      <c r="H7">
-        <v>0.448278</v>
-      </c>
-      <c r="I7">
-        <v>0.3648812815995331</v>
-      </c>
-      <c r="J7">
-        <v>0.4628747554119148</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>1.121778666666667</v>
-      </c>
-      <c r="N7">
-        <v>3.365336</v>
-      </c>
-      <c r="O7">
-        <v>0.09255463120785677</v>
-      </c>
-      <c r="P7">
-        <v>0.104096069873318</v>
-      </c>
-      <c r="Q7">
-        <v>0.1676228990453333</v>
-      </c>
-      <c r="R7">
-        <v>1.508606091408</v>
-      </c>
-      <c r="S7">
-        <v>0.03377145245309492</v>
-      </c>
-      <c r="T7">
-        <v>0.04818344288195366</v>
+        <v>0.3506201564455979</v>
       </c>
     </row>
   </sheetData>
